--- a/Sentiment_Analysis/DIY/evaluation_dataset.xlsx
+++ b/Sentiment_Analysis/DIY/evaluation_dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aiubedu60714-my.sharepoint.com/personal/19-40764-2_student_aiub_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AIUB\Semester-11\Thesis\PsudoCode\Sentiment_Analysis\DIY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{BEA9C23B-B14B-4423-B45C-64C8030796A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF6E4175-737B-4E56-A9B9-CAB83CB3C129}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B962D9B5-7E45-4063-AC1A-F15637E955FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_dataset" sheetId="1" r:id="rId1"/>
@@ -289,15 +289,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -706,10 +707,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1012,7 +1009,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection sqref="A1:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,55 +1018,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -1078,404 +1075,380 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>5.263157895</v>
+      <c r="B2" s="1">
+        <v>4.3157894739999998</v>
       </c>
       <c r="C2" s="1">
-        <v>5.263157895</v>
+        <v>4.3157894739999998</v>
       </c>
       <c r="D2" s="1">
-        <v>5.263157895</v>
+        <v>4.3157894739999998</v>
       </c>
       <c r="E2" s="2">
-        <f>10-D2</f>
-        <v>4.736842105</v>
+        <v>5.6842105260000002</v>
       </c>
       <c r="F2" s="1">
-        <v>5.8947368420000004</v>
+        <v>4.9473684210000002</v>
       </c>
       <c r="G2" s="1">
-        <v>6.5555555559999998</v>
+        <v>5.3157894739999998</v>
       </c>
       <c r="H2" s="1">
-        <v>6.2251461990000001</v>
+        <v>5.1315789479999996</v>
       </c>
       <c r="I2" s="2">
-        <f>10-H2</f>
-        <v>3.7748538009999999</v>
+        <v>4.8684210520000004</v>
       </c>
       <c r="J2" s="1">
-        <v>6.3529411759999999</v>
+        <v>5.3529411759999999</v>
       </c>
       <c r="K2" s="1">
-        <v>6.6315789470000004</v>
+        <v>5.6315789470000004</v>
       </c>
       <c r="L2" s="4">
-        <f>(-J2+K2+10+P2)/3</f>
-        <v>5.2254550146666672</v>
+        <v>4.8428792569999999</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2">
-        <v>4</v>
+      <c r="N2" s="7">
+        <v>3</v>
       </c>
       <c r="O2" s="1">
-        <v>5.846153846</v>
+        <v>4.5454545450000001</v>
       </c>
       <c r="P2" s="1">
-        <v>5.3977272730000001</v>
+        <v>4.25</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.846153846</v>
+        <v>7.4</v>
       </c>
       <c r="R2" s="4">
-        <v>5.5033216779999998</v>
+        <v>4.7988636360000001</v>
       </c>
       <c r="S2" s="5">
-        <v>8</v>
-      </c>
-      <c r="T2">
-        <f>((E2+(10-I2)+R2+L2+(10-S2))/5)*10</f>
-        <v>47.381529993333338</v>
+        <v>7</v>
+      </c>
+      <c r="T2" s="7">
+        <v>46.915064729999997</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E7" si="0">10-D3</f>
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I7" si="1">10-H3</f>
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="7">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7">
         <v>7</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L7" si="2">(-J3+K3+10+P3)/3</f>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="M3" t="s">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
-      <c r="O3">
-        <v>8</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>8</v>
-      </c>
-      <c r="R3" s="3">
-        <v>8</v>
+      <c r="N3" s="7">
+        <v>7</v>
+      </c>
+      <c r="O3" s="7">
+        <v>7</v>
+      </c>
+      <c r="P3" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>7</v>
+      </c>
+      <c r="R3" s="4">
+        <v>7</v>
       </c>
       <c r="S3" s="2">
         <v>8</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T7" si="3">((E3+(10-I3)+R3+L3+(10-S3))/5)*10</f>
-        <v>56.666666666666657</v>
+      <c r="T3" s="7">
+        <v>55.333333330000002</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5.25</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="K4" s="7">
+        <v>6.55</v>
+      </c>
+      <c r="L4" s="4">
+        <v>7.0880999999999998</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7">
+        <v>6.77</v>
+      </c>
+      <c r="P4" s="7">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>7.55</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="2"/>
-        <v>7.5166666666666666</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>8</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>8</v>
-      </c>
-      <c r="R4" s="3">
-        <v>7</v>
+      <c r="Q4" s="7">
+        <v>7</v>
+      </c>
+      <c r="R4" s="4">
+        <v>5.6924999999999999</v>
       </c>
       <c r="S4" s="2">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="3"/>
-        <v>71.033333333333331</v>
+        <v>1</v>
+      </c>
+      <c r="T4" s="7">
+        <v>68.561199999999999</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>7.6</v>
+      <c r="B5" s="7">
+        <v>6.6</v>
       </c>
       <c r="C5" s="6">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="D5" s="6">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F5">
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9</v>
+      </c>
+      <c r="J5" s="6">
+        <v>6.3333333329999997</v>
+      </c>
+      <c r="K5" s="6">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="L5" s="4">
+        <v>5.2222222220000001</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6">
+        <v>6.3333333329999997</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>6.3333333329999997</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>3</v>
+      </c>
+      <c r="R5" s="4">
+        <v>5.1666666670000003</v>
+      </c>
+      <c r="S5" s="6">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J5" s="6">
-        <v>7.3333333329999997</v>
-      </c>
-      <c r="K5" s="6">
-        <v>6.6666666670000003</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="2"/>
-        <v>5.5555555556666674</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="6">
-        <v>7.3333333329999997</v>
-      </c>
-      <c r="O5" s="6">
-        <v>6</v>
-      </c>
-      <c r="P5" s="6">
-        <v>7.3333333329999997</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>4</v>
-      </c>
-      <c r="R5" s="3">
-        <v>6</v>
-      </c>
-      <c r="S5" s="6">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="3"/>
-        <v>45.511111111333335</v>
+      <c r="T5" s="7">
+        <v>45.577777779999998</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7">
-        <v>7.7140000000000004</v>
-      </c>
-      <c r="C6" s="7">
-        <v>7.7140000000000004</v>
-      </c>
-      <c r="D6" s="7">
-        <v>7.7140000000000004</v>
+      <c r="B6" s="6">
+        <v>6.7140000000000004</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6.7140000000000004</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6.7140000000000004</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2859999999999996</v>
-      </c>
-      <c r="F6" s="7">
+        <v>3.286</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="7">
+        <v>7</v>
+      </c>
+      <c r="O6" s="7">
+        <v>8</v>
+      </c>
+      <c r="P6" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>7</v>
+      </c>
+      <c r="R6" s="4">
+        <v>7.25</v>
+      </c>
+      <c r="S6" s="2">
         <v>6</v>
       </c>
-      <c r="G6" s="7">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J6" s="7">
-        <v>6</v>
-      </c>
-      <c r="K6" s="7">
-        <v>6</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6">
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>9</v>
-      </c>
-      <c r="P6" s="7">
-        <v>8</v>
-      </c>
-      <c r="Q6">
-        <v>8</v>
-      </c>
-      <c r="R6" s="3">
-        <v>6</v>
-      </c>
-      <c r="S6" s="2">
-        <v>7</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="3"/>
-        <v>46.572000000000003</v>
+      <c r="T6" s="7">
+        <v>50.405333329999998</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>4.5</v>
-      </c>
-      <c r="C7">
-        <v>4.5</v>
-      </c>
-      <c r="D7">
-        <v>4.5</v>
+      <c r="B7" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3.4</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="F7">
+        <v>6.6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="7">
+        <v>5</v>
+      </c>
+      <c r="K7" s="7">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4">
+        <v>4.3333333329999997</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
         <v>9</v>
       </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>9.5</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="2"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>10</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>8</v>
-      </c>
-      <c r="R7" s="3">
-        <v>6</v>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>7</v>
+      </c>
+      <c r="R7" s="4">
+        <v>4.25</v>
       </c>
       <c r="S7" s="2">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="3"/>
-        <v>63.333333333333343</v>
+        <v>3</v>
+      </c>
+      <c r="T7" s="7">
+        <v>59.366666670000001</v>
       </c>
     </row>
   </sheetData>
